--- a/Ecopulper/my_graphs/Value Added Change by Commodities.xlsx
+++ b/Ecopulper/my_graphs/Value Added Change by Commodities.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02098925095924642</v>
+        <v>0.0002119162963936105</v>
       </c>
       <c r="J2">
-        <v>0.08832560843438841</v>
+        <v>0.0008917725936044008</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02202977645083593</v>
+        <v>0.0002224218934543387</v>
       </c>
       <c r="J3">
-        <v>1.461568546917988</v>
+        <v>0.01475661109725479</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.04047085775528103</v>
+        <v>0.0004086108092451468</v>
       </c>
       <c r="J4">
-        <v>0.142118150513852</v>
+        <v>0.001434884645277634</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.937293797662278E-07</v>
+        <v>3.975301865466463E-09</v>
       </c>
       <c r="J5">
-        <v>1.05187100416515E-05</v>
+        <v>1.062016963260248E-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0008509563135703502</v>
+        <v>8.591612186137354E-06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.020872075896477</v>
+        <v>0.02040357487567235</v>
       </c>
       <c r="J7">
-        <v>6.834186468331609</v>
+        <v>0.0690008225501515</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6362531865088386</v>
+        <v>0.006423879909561947</v>
       </c>
       <c r="J8">
-        <v>9.784657429438084</v>
+        <v>0.09879001893568784</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.002581780969194369</v>
+        <v>2.606674388516694E-05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.264201908401446</v>
+        <v>0.01276391446299385</v>
       </c>
       <c r="J10">
-        <v>11.4031230713008</v>
+        <v>0.1151307291584089</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01070599278682494</v>
+        <v>0.0001080922011169605</v>
       </c>
       <c r="J11">
-        <v>0.1694429658527952</v>
+        <v>0.001710767472104635</v>
       </c>
     </row>
   </sheetData>
